--- a/natmiOut/OldD0/LR-pairs_lrc2p/Il34-Ptprz1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Il34-Ptprz1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.8920004967942</v>
+        <v>1.393664333333333</v>
       </c>
       <c r="H2">
-        <v>2.8920004967942</v>
+        <v>4.180993</v>
       </c>
       <c r="I2">
-        <v>0.09560614151508003</v>
+        <v>0.04358216200908328</v>
       </c>
       <c r="J2">
-        <v>0.09560614151508003</v>
+        <v>0.04358216200908328</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.069191100728583</v>
+        <v>0.1030763333333333</v>
       </c>
       <c r="N2">
-        <v>0.069191100728583</v>
+        <v>0.309229</v>
       </c>
       <c r="O2">
-        <v>0.007834199894206072</v>
+        <v>0.01126512502660735</v>
       </c>
       <c r="P2">
-        <v>0.007834199894206072</v>
+        <v>0.01126512502660735</v>
       </c>
       <c r="Q2">
-        <v>0.2001006976807996</v>
+        <v>0.1436538093774444</v>
       </c>
       <c r="R2">
-        <v>0.2001006976807996</v>
+        <v>1.292884284397</v>
       </c>
       <c r="S2">
-        <v>0.0007489976237428907</v>
+        <v>0.0004909585039621803</v>
       </c>
       <c r="T2">
-        <v>0.0007489976237428907</v>
+        <v>0.0004909585039621803</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.8920004967942</v>
+        <v>1.393664333333333</v>
       </c>
       <c r="H3">
-        <v>2.8920004967942</v>
+        <v>4.180993</v>
       </c>
       <c r="I3">
-        <v>0.09560614151508003</v>
+        <v>0.04358216200908328</v>
       </c>
       <c r="J3">
-        <v>0.09560614151508003</v>
+        <v>0.04358216200908328</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.762738344900519</v>
+        <v>9.046962666666667</v>
       </c>
       <c r="N3">
-        <v>8.762738344900519</v>
+        <v>27.140888</v>
       </c>
       <c r="O3">
-        <v>0.9921658001057939</v>
+        <v>0.9887348749733926</v>
       </c>
       <c r="P3">
-        <v>0.9921658001057939</v>
+        <v>0.9887348749733927</v>
       </c>
       <c r="Q3">
-        <v>25.34184364672989</v>
+        <v>12.60842919353156</v>
       </c>
       <c r="R3">
-        <v>25.34184364672989</v>
+        <v>113.475862741784</v>
       </c>
       <c r="S3">
-        <v>0.09485714389133713</v>
+        <v>0.0430912035051211</v>
       </c>
       <c r="T3">
-        <v>0.09485714389133713</v>
+        <v>0.0430912035051211</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -640,61 +643,61 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.3571074680748</v>
+        <v>2.952820666666666</v>
       </c>
       <c r="H4">
-        <v>27.3571074680748</v>
+        <v>8.858461999999999</v>
       </c>
       <c r="I4">
-        <v>0.9043938584849199</v>
+        <v>0.092339529397755</v>
       </c>
       <c r="J4">
-        <v>0.9043938584849199</v>
+        <v>0.092339529397755</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.069191100728583</v>
+        <v>0.1030763333333333</v>
       </c>
       <c r="N4">
-        <v>0.069191100728583</v>
+        <v>0.309229</v>
       </c>
       <c r="O4">
-        <v>0.007834199894206072</v>
+        <v>0.01126512502660735</v>
       </c>
       <c r="P4">
-        <v>0.007834199894206072</v>
+        <v>0.01126512502660735</v>
       </c>
       <c r="Q4">
-        <v>1.892868378466234</v>
+        <v>0.3043659273108889</v>
       </c>
       <c r="R4">
-        <v>1.892868378466234</v>
+        <v>2.739293345798</v>
       </c>
       <c r="S4">
-        <v>0.007085202270463181</v>
+        <v>0.001040216343563795</v>
       </c>
       <c r="T4">
-        <v>0.007085202270463181</v>
+        <v>0.001040216343563795</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -702,61 +705,185 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>2.952820666666666</v>
+      </c>
+      <c r="H5">
+        <v>8.858461999999999</v>
+      </c>
+      <c r="I5">
+        <v>0.092339529397755</v>
+      </c>
+      <c r="J5">
+        <v>0.092339529397755</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>9.046962666666667</v>
+      </c>
+      <c r="N5">
+        <v>27.140888</v>
+      </c>
+      <c r="O5">
+        <v>0.9887348749733926</v>
+      </c>
+      <c r="P5">
+        <v>0.9887348749733927</v>
+      </c>
+      <c r="Q5">
+        <v>26.71405833269511</v>
+      </c>
+      <c r="R5">
+        <v>240.426524994256</v>
+      </c>
+      <c r="S5">
+        <v>0.0912993130541912</v>
+      </c>
+      <c r="T5">
+        <v>0.09129931305419121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>27.3571074680748</v>
-      </c>
-      <c r="H5">
-        <v>27.3571074680748</v>
-      </c>
-      <c r="I5">
-        <v>0.9043938584849199</v>
-      </c>
-      <c r="J5">
-        <v>0.9043938584849199</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>8.762738344900519</v>
-      </c>
-      <c r="N5">
-        <v>8.762738344900519</v>
-      </c>
-      <c r="O5">
-        <v>0.9921658001057939</v>
-      </c>
-      <c r="P5">
-        <v>0.9921658001057939</v>
-      </c>
-      <c r="Q5">
-        <v>239.7231746160634</v>
-      </c>
-      <c r="R5">
-        <v>239.7231746160634</v>
-      </c>
-      <c r="S5">
-        <v>0.8973086562144568</v>
-      </c>
-      <c r="T5">
-        <v>0.8973086562144568</v>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>27.63137633333334</v>
+      </c>
+      <c r="H6">
+        <v>82.89412900000001</v>
+      </c>
+      <c r="I6">
+        <v>0.8640783085931617</v>
+      </c>
+      <c r="J6">
+        <v>0.8640783085931617</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.1030763333333333</v>
+      </c>
+      <c r="N6">
+        <v>0.309229</v>
+      </c>
+      <c r="O6">
+        <v>0.01126512502660735</v>
+      </c>
+      <c r="P6">
+        <v>0.01126512502660735</v>
+      </c>
+      <c r="Q6">
+        <v>2.848140957393444</v>
+      </c>
+      <c r="R6">
+        <v>25.633268616541</v>
+      </c>
+      <c r="S6">
+        <v>0.009733950179081376</v>
+      </c>
+      <c r="T6">
+        <v>0.009733950179081378</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>27.63137633333334</v>
+      </c>
+      <c r="H7">
+        <v>82.89412900000001</v>
+      </c>
+      <c r="I7">
+        <v>0.8640783085931617</v>
+      </c>
+      <c r="J7">
+        <v>0.8640783085931617</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>9.046962666666667</v>
+      </c>
+      <c r="N7">
+        <v>27.140888</v>
+      </c>
+      <c r="O7">
+        <v>0.9887348749733926</v>
+      </c>
+      <c r="P7">
+        <v>0.9887348749733927</v>
+      </c>
+      <c r="Q7">
+        <v>249.9800301162836</v>
+      </c>
+      <c r="R7">
+        <v>2249.820271046552</v>
+      </c>
+      <c r="S7">
+        <v>0.8543443584140803</v>
+      </c>
+      <c r="T7">
+        <v>0.8543443584140804</v>
       </c>
     </row>
   </sheetData>
